--- a/medicine/Psychotrope/Seyval_blanc/Seyval_blanc.xlsx
+++ b/medicine/Psychotrope/Seyval_blanc/Seyval_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  seyval blanc est un cépage de cuve français de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de Bertille Seyve dans ses établissements SEYVE-VILLARD à Saint-Vallier. L'origine génétique est vérifiée et le seyval blanc est un croisement des cépages Seibel 5656 x Seibel 4986 réalisé vers 1920 par Albert Seibel. Le cépage est autorisé dans de nombreux départements en France. Il est également autorisé en Grande-Bretagne, Canada et États-Unis. Au Brésil, le seyval blanc était diffusé sous le nom erroné du Sauvignon.
 Le seyval blanc est une hybride avec des parentages de Vitis vinifera, Vitis rupestris et Vitis aestivalis.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux blanc à liseré faiblement carminé.
 Jeunes feuilles aranéeuses, légèrement bronzées.
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque : comme le chasselas.
 </t>
@@ -607,7 +625,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille petite à moyenne. La grappe est cylindrique. Les raisins sont de chair pulpeuse. Sa production est bonne. Il est sensible au gelées printanières et à la coulure mais il se montre assez résistant au mildiou.
 </t>
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  seyval blanc est connu sous les noms de Seyve-Villard 5276, SV 5276, S.V. 52-76
 </t>
